--- a/04_contPareceres.xlsx
+++ b/04_contPareceres.xlsx
@@ -35702,13 +35702,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4EA3080-3420-4D0C-921B-F6B15833BA03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A3B13F-16A6-4E77-9208-6E5348B958E0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A910A40-88A7-46CA-AF86-F60CC07FCDE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F12D409-67D8-411A-A0D3-17CA8B8E3E9A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5836467E-9D2E-4CD3-82CC-147294794DE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0EF103-CAE4-4253-A2D2-18A1090414BA}"/>
 </file>
--- a/04_contPareceres.xlsx
+++ b/04_contPareceres.xlsx
@@ -17492,7 +17492,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>(02)115</t>
+          <t>L02</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\(02)115_ParecerConclusivo_PAJOSEDIAS_LUCIVAL_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L02_ParecerConclusivo_PAJOSEDIAS_JOAO_assinado.pdf</t>
         </is>
       </c>
     </row>
@@ -17549,14 +17549,14 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L02_ParecerConclusivo_PAJOSEDIAS_JOAO_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L02_ParecerConclusivo_PAJOSEDIAS_PEDRO_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>L02</t>
+          <t>L04</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -17581,14 +17581,14 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L02_ParecerConclusivo_PAJOSEDIAS_PEDRO_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L04_ParecerConclusivo_PAJOSEDIAS_TEREZA_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>L04</t>
+          <t>L05</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -17613,14 +17613,14 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L04_ParecerConclusivo_PAJOSEDIAS_TEREZA_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L05_ParecerConclusivo_PAJOSEDIAS_ANTONIO_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>L05</t>
+          <t>L06</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -17645,14 +17645,14 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L05_ParecerConclusivo_PAJOSEDIAS_ANTONIO_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L06_ParecerConclusivo_PAJOSEDIAS_VALDECIR_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L08</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -17672,19 +17672,19 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Padrão</t>
+          <t>Desbloqueio</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L06_ParecerConclusivo_PAJOSEDIAS_VALDECIR_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L08_ParecerConclusivo_PAJOSEDIAS_SOLANGE_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>L08</t>
+          <t>L09</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -17704,19 +17704,19 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Desbloqueio</t>
+          <t>Padrão</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L08_ParecerConclusivo_PAJOSEDIAS_SOLANGE_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L09_ParecerConclusivo_PAJOSEDIAS_VANDERLEI_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>L09</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -17741,14 +17741,14 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L09_ParecerConclusivo_PAJOSEDIAS_VANDERLEI_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L10_ParecerConclusivo_PAJOSEDIAS_ROSARIA_assinado.pdf</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>L115</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -17773,7 +17773,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L10_ParecerConclusivo_PAJOSEDIAS_ROSARIA_assinado.pdf</t>
+          <t>008_inacioMartins_4PAs\05_PAJoseDias\03_pareceres\L115_ParecerConclusivo_PAJOSEDIAS_LUCIVAL_assinado.pdf</t>
         </is>
       </c>
     </row>
@@ -35702,13 +35702,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A3B13F-16A6-4E77-9208-6E5348B958E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88A6CB81-3AA1-49D7-A01B-6A954CDE2EA1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F12D409-67D8-411A-A0D3-17CA8B8E3E9A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072F8691-3B28-4518-A94F-ACF3B5F50569}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0EF103-CAE4-4253-A2D2-18A1090414BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21136D4E-0DE3-439C-AA04-D3C113FC18B9}"/>
 </file>